--- a/upload/attendance.xlsx
+++ b/upload/attendance.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
   <si>
     <t>Student ID</t>
   </si>
@@ -33,18 +33,6 @@
   </si>
   <si>
     <t>Time In</t>
-  </si>
-  <si>
-    <t>Wick</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>2022-09-16</t>
-  </si>
-  <si>
-    <t>1:45 pm</t>
   </si>
 </sst>
 </file>
@@ -380,7 +368,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -406,24 +394,6 @@
       </c>
       <c r="F1" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>123456789</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2"/>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
